--- a/data/trans_dic/P32E$eventos_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32E$eventos_2023-Clase-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -946,7 +946,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$eventos_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32E$eventos_2023-Clase-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.09967834551221644</v>
+        <v>0.09967834551221642</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.2635506132543973</v>
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03304497646336357</v>
+        <v>0.03275143086359715</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2798745866780352</v>
+        <v>0.3103749722125728</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7762375652125904</v>
+        <v>0.7680612715326324</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3563043055049079</v>
+        <v>0.3366781369708709</v>
       </c>
     </row>
     <row r="7">
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03428061485349972</v>
+        <v>0.03683392754468343</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3039556299375651</v>
+        <v>0.3184697472015254</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5328216524706075</v>
+        <v>0.4970273845516118</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2956327367905289</v>
+        <v>0.302747945680923</v>
       </c>
     </row>
     <row r="10">
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.06357922405398203</v>
+        <v>0.06357922405398202</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.01665459304498404</v>
@@ -750,10 +750,10 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.3132403903630412</v>
+        <v>0.3309324949688171</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08888192426715461</v>
+        <v>0.07943061807181759</v>
       </c>
     </row>
     <row r="16">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.005810738037960228</v>
+        <v>0.00588477944228096</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02478770664995662</v>
+        <v>0.01901278766791644</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01450559255534196</v>
+        <v>0.01706538074806715</v>
       </c>
     </row>
     <row r="24">
@@ -888,13 +888,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05411292618428951</v>
+        <v>0.05425443313798001</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2089099999068434</v>
+        <v>0.1943994037223258</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.07113355206945536</v>
+        <v>0.07434142587258938</v>
       </c>
     </row>
     <row r="25">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>889</v>
+        <v>881</v>
       </c>
     </row>
     <row r="7">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5719</v>
+        <v>6343</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5028</v>
+        <v>4976</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9589</v>
+        <v>9061</v>
       </c>
     </row>
     <row r="8">
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>984</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="11">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4659</v>
+        <v>4882</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7128</v>
+        <v>6649</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8486</v>
+        <v>8691</v>
       </c>
     </row>
     <row r="12">
@@ -1258,10 +1258,10 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>4648</v>
+        <v>4911</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5035</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="20">
@@ -1430,13 +1430,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>916</v>
+        <v>928</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1493</v>
+        <v>1145</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>3161</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="31">
@@ -1447,13 +1447,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>8534</v>
+        <v>8556</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>12585</v>
+        <v>11711</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>15503</v>
+        <v>16202</v>
       </c>
     </row>
     <row r="32">
